--- a/other_data/LongTerm.xlsx
+++ b/other_data/LongTerm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C304A704-E2C0-FB4E-BB96-F1702B592A18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E740D8-404D-784B-9633-05650590DE97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="2300" windowWidth="24060" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="FromMGRsD" sheetId="3" r:id="rId3"/>
     <sheet name="UnitsConvertor" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_0Raw" localSheetId="0">Sheet1!$AL$5:$AM$28</definedName>
+    <definedName name="_0Raw_1" localSheetId="0">Sheet1!$AN$5:$AO$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,8 +29,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="0Raw" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\17.SRDB\SRDBPapers\Figures\0Raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="0Raw1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="G:\My Drive\MyResearch\Papers\17.SRDB\SRDBPapers\Figures\0Raw.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="244">
   <si>
     <t>StudyID</t>
   </si>
@@ -49,6 +74,15 @@
     <t>SiteID</t>
   </si>
   <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>HEM</t>
+  </si>
+  <si>
+    <t>HardwoodForest</t>
+  </si>
+  <si>
     <t>Jerry</t>
   </si>
   <si>
@@ -91,6 +125,21 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Hemlock</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Redpine</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
+  </si>
+  <si>
     <t>Figure 1</t>
   </si>
   <si>
@@ -109,6 +158,12 @@
     <t>obs_yr</t>
   </si>
   <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>Table 1</t>
   </si>
   <si>
@@ -127,6 +182,12 @@
     <t>Zhou</t>
   </si>
   <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>Felled</t>
+  </si>
+  <si>
     <t>Table 2</t>
   </si>
   <si>
@@ -152,6 +213,9 @@
   </si>
   <si>
     <t>21-44</t>
+  </si>
+  <si>
+    <t>HowlandForest</t>
   </si>
   <si>
     <t>Unit</t>
@@ -241,12 +305,21 @@
     <t>230-239</t>
   </si>
   <si>
+    <t>HardwoodForest-Pit1</t>
+  </si>
+  <si>
+    <t>HardwoodForest-Pit2</t>
+  </si>
+  <si>
     <t>Vertical partitioning of CO 2 production within a temperate forest soil</t>
   </si>
   <si>
     <t>944-956</t>
   </si>
   <si>
+    <t>DukeForestFACE</t>
+  </si>
+  <si>
     <t>Bernhardt</t>
   </si>
   <si>
@@ -259,6 +332,9 @@
     <t>91-116</t>
   </si>
   <si>
+    <t>MoorHouseNationalNatureReserve</t>
+  </si>
+  <si>
     <t>Figure 11</t>
   </si>
   <si>
@@ -277,6 +353,9 @@
     <t xml:space="preserve"> 515-539</t>
   </si>
   <si>
+    <t>DF49</t>
+  </si>
+  <si>
     <t>Rachhpal</t>
   </si>
   <si>
@@ -292,6 +371,9 @@
     <t>134-143</t>
   </si>
   <si>
+    <t>YatirForest</t>
+  </si>
+  <si>
     <t>Water limitation to soil CO 2 efflux in a pine forest at the semiarid‘timberline’</t>
   </si>
   <si>
@@ -307,6 +389,12 @@
     <t>G03008</t>
   </si>
   <si>
+    <t>OldAlluvialSoil</t>
+  </si>
+  <si>
+    <t>ResidualSoil</t>
+  </si>
+  <si>
     <t>Schwendenmann</t>
   </si>
   <si>
@@ -340,9 +428,15 @@
     <t>1897-1906</t>
   </si>
   <si>
+    <t xml:space="preserve"> QianyanzhouEcologicalStation</t>
+  </si>
+  <si>
     <t>Table 7</t>
   </si>
   <si>
+    <t>WindRiverExperimentalForest</t>
+  </si>
+  <si>
     <t>Falk</t>
   </si>
   <si>
@@ -355,6 +449,9 @@
     <t>269-283</t>
   </si>
   <si>
+    <t>BlacklandResearchCenter</t>
+  </si>
+  <si>
     <t>Figure 3</t>
   </si>
   <si>
@@ -388,6 +485,9 @@
     <t>Is soil respiration a major contributor to the carbon budget within a Paciﬁc Northwest old-growth forest?</t>
   </si>
   <si>
+    <t>LaoshanStation</t>
+  </si>
+  <si>
     <t>Zu</t>
   </si>
   <si>
@@ -412,6 +512,15 @@
     <t>137-159</t>
   </si>
   <si>
+    <t>Vordemwald</t>
+  </si>
+  <si>
+    <t>Schanis</t>
+  </si>
+  <si>
+    <t>Beatenberg</t>
+  </si>
+  <si>
     <t>Pannatier</t>
   </si>
   <si>
@@ -430,6 +539,9 @@
     <t>295-317</t>
   </si>
   <si>
+    <t>BIO</t>
+  </si>
+  <si>
     <t>Herbst</t>
   </si>
   <si>
@@ -454,6 +566,9 @@
     <t>Figure 2</t>
   </si>
   <si>
+    <t>ClocaenongWales</t>
+  </si>
+  <si>
     <t>Sowerby</t>
   </si>
   <si>
@@ -472,6 +587,9 @@
     <t>2388-2404</t>
   </si>
   <si>
+    <t>SMEAR-II</t>
+  </si>
+  <si>
     <t>Kolari</t>
   </si>
   <si>
@@ -484,6 +602,12 @@
     <t>761-783</t>
   </si>
   <si>
+    <t>HFEMS-Upland</t>
+  </si>
+  <si>
+    <t>HFEMS-Wetland</t>
+  </si>
+  <si>
     <t>Phillips</t>
   </si>
   <si>
@@ -509,6 +633,9 @@
   </si>
   <si>
     <t>Table 8</t>
+  </si>
+  <si>
+    <t>Neuglobsow</t>
   </si>
   <si>
     <t>Schulte-Bisping</t>
@@ -544,6 +671,12 @@
     <t>1601-1609</t>
   </si>
   <si>
+    <t>FACTS-I</t>
+  </si>
+  <si>
+    <t>ORNL</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -574,112 +707,124 @@
     <t>1027-1042</t>
   </si>
   <si>
-    <t>1_HardwoodForest</t>
-  </si>
-  <si>
-    <t>2_Deciduous</t>
-  </si>
-  <si>
-    <t>2_Hemlock</t>
-  </si>
-  <si>
-    <t>2_Mixed</t>
-  </si>
-  <si>
-    <t>2_Redpine</t>
-  </si>
-  <si>
-    <t>2_Wetlands</t>
-  </si>
-  <si>
-    <t>2_EMS</t>
-  </si>
-  <si>
-    <t>2_HEM</t>
-  </si>
-  <si>
-    <t>3_UC</t>
-  </si>
-  <si>
-    <t>3_CC</t>
-  </si>
-  <si>
-    <t>4_Spruce</t>
-  </si>
-  <si>
-    <t>4_Felled</t>
-  </si>
-  <si>
-    <t>5_HowlandForest</t>
-  </si>
-  <si>
-    <t>6_HardwoodForest-Pit1</t>
-  </si>
-  <si>
-    <t>6_HardwoodForest-Pit2</t>
-  </si>
-  <si>
-    <t>7_DukeForestFACE</t>
-  </si>
-  <si>
-    <t>8_MoorHouseNationalNatureReserve</t>
-  </si>
-  <si>
-    <t>9_DF49</t>
-  </si>
-  <si>
-    <t>10_YatirForest</t>
-  </si>
-  <si>
-    <t>11_OldAlluvialSoil</t>
-  </si>
-  <si>
-    <t>11_ResidualSoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12_QianyanzhouEcologicalStation</t>
-  </si>
-  <si>
-    <t>13_WindRiverExperimentalForest</t>
-  </si>
-  <si>
-    <t>14_BlacklandResearchCenter</t>
-  </si>
-  <si>
-    <t>15_LaoshanStation</t>
-  </si>
-  <si>
-    <t>16_Vordemwald</t>
-  </si>
-  <si>
-    <t>16_Schanis</t>
-  </si>
-  <si>
-    <t>16_Beatenberg</t>
-  </si>
-  <si>
-    <t>17_BIO</t>
-  </si>
-  <si>
-    <t>18_ClocaenongWales</t>
-  </si>
-  <si>
-    <t>19_SMEAR-II</t>
-  </si>
-  <si>
-    <t>20_HFEMS-Upland</t>
-  </si>
-  <si>
-    <t>20_HFEMS-Wetland</t>
-  </si>
-  <si>
-    <t>21_Neuglobsow</t>
-  </si>
-  <si>
-    <t>22_FACTS-I</t>
-  </si>
-  <si>
-    <t>22_ORNL</t>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>PP5</t>
+  </si>
+  <si>
+    <t>PP6</t>
+  </si>
+  <si>
+    <t>PP8</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Oishi</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Spatial and temporal variability of soil CO2 efflux in three proximate temperate forest ecosystems."</t>
+  </si>
+  <si>
+    <t>Agricultural and Forest Meteorology</t>
+  </si>
+  <si>
+    <t>256-269</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Five‐Year Soil Respiration Reflected Soil Quality Evolution in Different Forest and Grassland Vegetation Types in the Eastern Loess Plateau of China.</t>
+  </si>
+  <si>
+    <t>Clean–Soil, Air, Water </t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>680-689</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>Junxia</t>
+  </si>
+  <si>
+    <t>ChangwuStation</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Soil moisture influence on the interannual variation in temperature sensitivity of soil organic carbon mineralization in the Loess Plateau</t>
+  </si>
+  <si>
+    <t>Biogeosciences</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>3655-3664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul </t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>163-189</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Soil respiration and litter decomposition, from North American temperate deciduous forest responses to changing precipitation regimes. Springer, New York, NY</t>
+  </si>
+  <si>
+    <t>Table 10.4</t>
+  </si>
+  <si>
+    <t>WBW--Ambient</t>
+  </si>
+  <si>
+    <t>WBW-Dry</t>
+  </si>
+  <si>
+    <t>WBW-Wet</t>
   </si>
 </sst>
 </file>
@@ -779,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -819,6 +964,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,6 +991,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0Raw" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="0Raw_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,472 +1322,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="30" width="9.1640625" style="1"/>
+    <col min="31" max="31" width="6" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9.1640625" style="1"/>
+    <col min="35" max="35" width="6" style="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" style="1"/>
+    <col min="38" max="38" width="7" style="1" customWidth="1"/>
+    <col min="39" max="39" width="9" style="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="1" customWidth="1"/>
+    <col min="41" max="41" width="12.1640625" style="21" customWidth="1"/>
+    <col min="42" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="22">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="22">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="22">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="22">
         <v>2</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="22">
         <v>2</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="22">
         <v>2</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="22">
         <v>2</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="22">
         <v>2</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="22">
         <v>3</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="22">
         <v>3</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="22">
         <v>4</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="22">
         <v>4</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="22">
         <v>5</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="22">
         <v>6</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="22">
         <v>6</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="22">
         <v>7</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="22">
         <v>8</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="22">
         <v>9</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="22">
         <v>10</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="22">
         <v>11</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="22">
         <v>11</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="22">
         <v>12</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="22">
         <v>13</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="22">
         <v>14</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="22">
         <v>15</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="22">
         <v>16</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="22">
         <v>16</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="22">
         <v>16</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="22">
         <v>17</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="22">
         <v>18</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="22">
         <v>19</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="22">
         <v>20</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="22">
         <v>20</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="22">
         <v>21</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="22">
         <v>22</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="22">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AQ1" s="22">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="22">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="22">
+        <v>24</v>
+      </c>
+      <c r="AT1" s="22">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="22">
+        <v>26</v>
+      </c>
+      <c r="AV1" s="22">
+        <v>26</v>
+      </c>
+      <c r="AW1" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22">
         <v>1991</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="22">
         <v>1992</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="22">
         <v>1992</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="22">
         <v>1992</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="22">
         <v>1992</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="22">
         <v>1992</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="22">
         <v>1992</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="22">
         <v>2004</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J3" s="22">
         <v>2000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K3" s="22">
         <v>2000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L3" s="22">
         <v>1977</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M3" s="22">
         <v>1977</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N3" s="22">
         <v>1997</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O3" s="22">
         <v>1996</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P3" s="22">
         <v>1997</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q3" s="22">
         <v>1997</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R3" s="22">
         <v>1994</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S3" s="22">
         <v>2003</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T3" s="22">
         <v>2000</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U3" s="22">
         <v>1998</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V3" s="22">
         <v>1998</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W3" s="22">
         <v>2004</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X3" s="22">
         <v>1999</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y3" s="22">
         <v>1993</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z3" s="22">
         <v>2001</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA3" s="22">
         <v>2001</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB3" s="22">
         <v>2001</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC3" s="22">
         <v>2001</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD3" s="22">
         <v>1999</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE3" s="22">
         <v>1999</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF3" s="22">
         <v>2002</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG3" s="22">
         <v>2003</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH3" s="22">
         <v>2003</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI3" s="22">
         <v>2004</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ3" s="22">
         <v>1997</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK3" s="22">
         <v>1997</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="AL3" s="22">
+        <v>2005</v>
+      </c>
+      <c r="AM3" s="22">
+        <v>2005</v>
+      </c>
+      <c r="AN3" s="22">
+        <v>2005</v>
+      </c>
+      <c r="AO3" s="22">
+        <v>2001</v>
+      </c>
+      <c r="AP3" s="22">
+        <v>2001</v>
+      </c>
+      <c r="AQ3" s="22">
+        <v>2001</v>
+      </c>
+      <c r="AR3" s="22">
+        <v>2005</v>
+      </c>
+      <c r="AS3" s="22">
+        <v>2005</v>
+      </c>
+      <c r="AT3" s="22">
+        <v>2008</v>
+      </c>
+      <c r="AU3" s="22">
+        <v>1993</v>
+      </c>
+      <c r="AV3" s="22">
+        <v>1993</v>
+      </c>
+      <c r="AW3" s="22">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="AJ4" s="3" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1749,8 +2069,44 @@
       <c r="AK5" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5" s="1">
+        <v>1480</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1220</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1610</v>
+      </c>
+      <c r="AO5" s="21">
+        <v>1360</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1190</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1733.2296526697771</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>2051.1145671332297</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>293</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>789</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>754</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1877,8 +2233,44 @@
       <c r="AK6" s="1">
         <v>784</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6" s="1">
+        <v>1840</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1640</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1690</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>1210</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1330</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>1290.4613789528255</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>1271.5396578538102</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>298</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>958</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>950</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2005,8 +2397,44 @@
       <c r="AK7" s="1">
         <v>898</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1120</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1480</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>1480</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1520</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1320</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1487.2472783825817</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1460.7568688439605</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>238</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>862</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>824</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2133,8 +2561,44 @@
       <c r="AK8" s="1">
         <v>996</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" s="1">
+        <v>1510</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1230</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1410</v>
+      </c>
+      <c r="AO8" s="21">
+        <v>1420</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1550</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1280</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1237.4805598755831</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1260.1866251944014</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>234</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>960</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>954</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2261,8 +2725,44 @@
       <c r="AK9" s="1">
         <v>698</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL9" s="1">
+        <v>1180</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1220</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1490</v>
+      </c>
+      <c r="AO9" s="21">
+        <v>1100</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1350</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1080</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1343.4421980300674</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1555.3654743390359</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>226</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>947</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>946</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2343,8 +2843,35 @@
       <c r="AD10" s="1">
         <v>626.29999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10" s="1">
+        <v>1090</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1210</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1490</v>
+      </c>
+      <c r="AO10" s="21">
+        <v>1410</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1630</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>240</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>965</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>928</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2403,8 +2930,23 @@
       <c r="AD11" s="1">
         <v>600.20000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AO11" s="21">
+        <v>970.81</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1180</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>972</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>953</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2443,8 +2985,23 @@
       <c r="AD12" s="1">
         <v>502.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AO12" s="21">
+        <v>1230</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1310</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>976</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>950</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2477,8 +3034,14 @@
         <f>12/44*1727.6</f>
         <v>471.16363636363633</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AO13" s="21">
+        <v>1180</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2503,8 +3066,14 @@
       <c r="H14" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AO14" s="21">
+        <v>1190</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2530,7 +3099,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2555,8 +3124,10 @@
       <c r="H16" s="1">
         <v>741</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF16" s="19"/>
+      <c r="AJ16" s="19"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2581,8 +3152,10 @@
       <c r="H17" s="1">
         <v>708</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF17" s="19"/>
+      <c r="AJ17" s="19"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2607,8 +3180,10 @@
       <c r="H18" s="1">
         <v>756</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF18" s="19"/>
+      <c r="AJ18" s="19"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2633,8 +3208,10 @@
       <c r="H19" s="1">
         <v>725</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF19" s="19"/>
+      <c r="AJ19" s="19"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2659,8 +3236,11 @@
       <c r="H20" s="1">
         <v>680</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AM20" s="19"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2685,8 +3265,10 @@
       <c r="H21" s="1">
         <v>695</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF21" s="19"/>
+      <c r="AJ21" s="19"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2711,83 +3293,113 @@
       <c r="H22" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="19"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>588.70000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF23" s="19"/>
+      <c r="AJ23" s="19"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>576</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF24" s="19"/>
+      <c r="AJ24" s="19"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>570</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF25" s="19"/>
+      <c r="AJ25" s="19"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>511.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="19"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>468.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="19"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>526.79999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="19"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>716.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="19"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>698</v>
       </c>
+      <c r="AJ30" s="19"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="19"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="19"/>
+    </row>
+    <row r="33" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="19"/>
+    </row>
+    <row r="34" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="19"/>
+    </row>
+    <row r="35" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="19"/>
+    </row>
+    <row r="36" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2822,16 +3434,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2839,16 +3451,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7">
         <v>358</v>
@@ -2860,7 +3472,7 @@
         <v>2017</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -2869,16 +3481,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
@@ -2890,7 +3502,7 @@
         <v>2013</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -2899,16 +3511,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8">
         <v>13</v>
@@ -2920,7 +3532,7 @@
         <v>2007</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2928,28 +3540,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F5" s="8">
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8">
         <v>2002</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2957,16 +3569,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8">
         <v>12</v>
@@ -2975,7 +3587,7 @@
         <v>2006</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2983,16 +3595,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8">
         <v>12</v>
@@ -3001,7 +3613,7 @@
         <v>2006</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3009,16 +3621,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F8" s="8">
         <v>77</v>
@@ -3030,7 +3642,7 @@
         <v>2006</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3038,16 +3650,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F9" s="8">
         <v>73</v>
@@ -3056,7 +3668,7 @@
         <v>2005</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3064,16 +3676,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8">
         <v>153</v>
@@ -3082,7 +3694,7 @@
         <v>2012</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3090,16 +3702,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F11" s="8">
         <v>114</v>
@@ -3108,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3116,16 +3728,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F12" s="8">
         <v>12</v>
@@ -3137,7 +3749,7 @@
         <v>2006</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J12" s="17">
         <v>3581</v>
@@ -3148,16 +3760,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F13" s="8">
         <v>41</v>
@@ -3169,7 +3781,7 @@
         <v>2011</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="J13" s="17">
         <v>5935</v>
@@ -3180,16 +3792,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F14" s="8">
         <v>135</v>
@@ -3201,10 +3813,10 @@
         <v>2005</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3212,28 +3824,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="J15" s="17">
         <v>1654</v>
@@ -3244,28 +3856,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="J16" s="17">
         <v>5278</v>
@@ -3276,28 +3888,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="J17" s="17">
         <v>6451</v>
@@ -3308,28 +3920,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="J18" s="17">
         <v>4333</v>
@@ -3340,28 +3952,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="J19" s="17">
         <v>4564</v>
@@ -3372,25 +3984,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="J20" s="17">
         <v>4938</v>
@@ -3401,25 +4013,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="J21" s="17">
         <v>5519</v>
@@ -3430,28 +4042,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="J22" s="17">
         <v>6504</v>
@@ -3462,31 +4074,144 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="J23" s="17">
         <v>2656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="17">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="17">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="17">
+        <v>10266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3500,17 +4225,17 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3705,21 +4430,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13">
         <f>1/12*10^6/24/60/60</f>
@@ -3735,7 +4460,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4" s="15">
         <f>1/12*10^6/60/60</f>
@@ -3751,7 +4476,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="15">
         <f>1/12*10^6/24/60/60/365</f>
@@ -3767,7 +4492,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C6" s="13">
         <f>1/44*10^6/60/60/24</f>
@@ -3783,7 +4508,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13">
         <f>1/44*10^6/60/60</f>
@@ -3799,7 +4524,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C8" s="13">
         <f>1/1000/12*10^6/60/60/24</f>
@@ -3815,7 +4540,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13">
         <f>1/1000/12*10^6/60/60</f>
@@ -3831,7 +4556,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C10" s="13">
         <f>1/1000/44*10^6/24/60/60</f>
@@ -3847,7 +4572,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13">
         <f>1/1000/44*10^6/60/60</f>
@@ -3863,7 +4588,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C12" s="13">
         <f>1/1000/44*10^6</f>
@@ -3879,7 +4604,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13">
         <f>1*1000/24/60/60</f>
@@ -3895,7 +4620,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15">
         <f>1*1000/60/60</f>
@@ -3911,7 +4636,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C15" s="13">
         <f>1/1000</f>
@@ -3927,7 +4652,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C16" s="15">
         <f>1*10^6/365/24/60/60</f>
@@ -3943,7 +4668,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
